--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
 </workbook>
 </file>
 
@@ -186,16 +186,16 @@
     <t>market group for electricity, medium voltage</t>
   </si>
   <si>
-    <t>heat, central or small-scale, other than natural gas</t>
-  </si>
-  <si>
-    <t>heat and power co-generation, biogas, gas engine</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
     <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
+  </si>
+  <si>
+    <t>heat and power co-generation, natural gas, 500kW electrical, lean burn</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, natural gas</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,7 +763,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <f>0.061874*0.669</f>
@@ -773,7 +773,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
@@ -782,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
     </row>
     <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>0.50779661016949151</v>
